--- a/Output/Classifier Fitting/Logistic Regression/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/Logistic Regression/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07184510231018067</v>
+        <v>350.1647225697835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001197418371836344</v>
+        <v>0.05833162128432176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.9853406630018324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.8790582847626978</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Fitting/Logistic Regression/All_Features_PCA Training Statistics.xlsx
+++ b/Output/Classifier Fitting/Logistic Regression/All_Features_PCA Training Statistics.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350.1647225697835</v>
+        <v>247.5740717609723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05833162128432176</v>
+        <v>0.04124172443127975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9853406630018324</v>
+        <v>0.9921705813759787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8790582847626978</v>
+        <v>0.9048806550097142</v>
       </c>
     </row>
   </sheetData>
